--- a/default-mappings-xlsx/dataQuality/DataQuality_Mapping_SAGE_DE.xlsx
+++ b/default-mappings-xlsx/dataQuality/DataQuality_Mapping_SAGE_DE.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\grabber\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\dataQuality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B2F560-EBFC-4CDB-8808-509FB266C4BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCBF88C8-456B-4225-9559-9A60DE99F058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3210" yWindow="6285" windowWidth="18255" windowHeight="5385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="checkbox">Specifications!$C$6:$D$27,Specifications!#REF!,Specifications!#REF!</definedName>
-    <definedName name="Field_type">Specifications!$I$6:$I$27,Specifications!$M$6:$M$27,Specifications!$Q$6:$Q$27,Specifications!$U$6:$U$27,Specifications!$Y$6:$Y$27,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!$I$30:$I$38,Specifications!$M$30:$M$38,Specifications!$Q$30:$Q$38,Specifications!$U$30:$U$38,Specifications!$Y$30:$Y$38</definedName>
+    <definedName name="checkbox">Specifications!$C$6:$D$31,Specifications!#REF!,Specifications!#REF!</definedName>
+    <definedName name="Field_type">Specifications!$I$6:$I$31,Specifications!$M$6:$M$31,Specifications!$Q$6:$Q$31,Specifications!$U$6:$U$31,Specifications!$Y$6:$Y$31,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!#REF!,Specifications!$I$34:$I$39,Specifications!$M$34:$M$39,Specifications!$Q$34:$Q$39,Specifications!$U$34:$U$39,Specifications!$Y$34:$Y$39</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="89">
   <si>
     <t>Website</t>
   </si>
@@ -278,6 +278,30 @@
   </si>
   <si>
     <t>Notizen</t>
+  </si>
+  <si>
+    <t>(= Felder mit automatischem Wert)</t>
+  </si>
+  <si>
+    <t>Beispiel Nicht-benötigtes Feld</t>
+  </si>
+  <si>
+    <t>Nicht benötigt</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Nicht Benötigt</t>
+  </si>
+  <si>
+    <t>Beispiel Pflichtfeld</t>
+  </si>
+  <si>
+    <t>Pflichtfeld</t>
+  </si>
+  <si>
+    <t>Pflichfeld</t>
   </si>
 </sst>
 </file>
@@ -391,7 +415,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="66">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -410,17 +434,6 @@
       <bottom style="thin">
         <color rgb="FF9DA600"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -462,15 +475,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color rgb="FF9DA600"/>
       </left>
@@ -490,7 +494,7 @@
       <right style="thick">
         <color rgb="FF9DA600"/>
       </right>
-      <top style="thick">
+      <top style="thin">
         <color rgb="FF9DA600"/>
       </top>
       <bottom style="thin">
@@ -508,46 +512,7 @@
       <top style="thin">
         <color rgb="FF9DA600"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
       <bottom style="thick">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF9DA600"/>
       </bottom>
       <diagonal/>
@@ -573,44 +538,7 @@
       <top style="thin">
         <color rgb="FF9DA600"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
       <bottom style="thick">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF9DA600"/>
       </bottom>
       <diagonal/>
@@ -793,19 +721,6 @@
       <right style="thick">
         <color rgb="FF9DA600"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF9DA600"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
       <top style="thin">
         <color rgb="FF9DA600"/>
       </top>
@@ -923,17 +838,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thick">
-        <color rgb="FF00A376"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color rgb="FF00A376"/>
       </left>
@@ -1127,45 +1031,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF9DA600"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF9DA600"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9DA600"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color rgb="FF6FEB6F"/>
       </left>
@@ -1234,182 +1099,146 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1419,7 +1248,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="19">
     <dxf>
       <font>
         <b val="0"/>
@@ -1472,118 +1301,8 @@
         <color rgb="FFFE6C36"/>
       </font>
       <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u/>
-        <color rgb="FF9DA600"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike/>
-        <color rgb="FFFE6C36"/>
-      </font>
-      <fill>
-        <patternFill patternType="darkDown">
-          <fgColor theme="0" tint="-0.14993743705557422"/>
+        <patternFill patternType="lightHorizontal">
+          <fgColor theme="0" tint="-0.14996795556505021"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
@@ -1758,11 +1477,11 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="snapADDY" pivot="0" count="5" xr9:uid="{A8851A67-88BF-475D-B211-A3CFCBFE5DEE}">
-      <tableStyleElement type="wholeTable" dxfId="28"/>
-      <tableStyleElement type="headerRow" dxfId="27"/>
-      <tableStyleElement type="firstColumn" dxfId="26"/>
-      <tableStyleElement type="firstRowStripe" dxfId="25"/>
-      <tableStyleElement type="secondRowStripe" dxfId="24"/>
+      <tableStyleElement type="wholeTable" dxfId="18"/>
+      <tableStyleElement type="headerRow" dxfId="17"/>
+      <tableStyleElement type="firstColumn" dxfId="16"/>
+      <tableStyleElement type="firstRowStripe" dxfId="15"/>
+      <tableStyleElement type="secondRowStripe" dxfId="14"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1873,13 +1592,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>973015</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>105510</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2241,10 +1960,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5027446F-BBDF-4A57-AA45-BC7D0EB64201}">
   <sheetPr codeName="Tabelle2"/>
-  <dimension ref="A1:Y39"/>
+  <dimension ref="A1:Y40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2271,7 +1990,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="1"/>
@@ -2280,1330 +1999,1348 @@
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:25" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G2" s="41"/>
-      <c r="K2" s="41"/>
+      <c r="G2" s="27"/>
+      <c r="K2" s="27"/>
     </row>
     <row r="3" spans="1:25" ht="80.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="29" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="30"/>
-      <c r="G3" s="101" t="s">
+      <c r="E3" s="18"/>
+      <c r="G3" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="101" t="s">
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="O3" s="101" t="s">
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="O3" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="S3" s="98" t="s">
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="S3" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="T3" s="99"/>
-      <c r="U3" s="100"/>
-      <c r="W3" s="98" t="s">
+      <c r="T3" s="75"/>
+      <c r="U3" s="76"/>
+      <c r="W3" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="X3" s="99"/>
-      <c r="Y3" s="100"/>
+      <c r="X3" s="75"/>
+      <c r="Y3" s="76"/>
     </row>
     <row r="4" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="91" t="s">
+      <c r="A5" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="36" t="s">
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="53" t="s">
+      <c r="G5" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="54" t="s">
+      <c r="H5" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="55" t="s">
+      <c r="I5" s="40" t="s">
         <v>4</v>
       </c>
       <c r="J5" s="1"/>
-      <c r="K5" s="53" t="s">
+      <c r="K5" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="54" t="s">
+      <c r="L5" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="55" t="s">
+      <c r="M5" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="O5" s="53" t="s">
+      <c r="O5" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="P5" s="54" t="s">
+      <c r="P5" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="Q5" s="55" t="s">
+      <c r="Q5" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="S5" s="67" t="s">
+      <c r="S5" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="T5" s="68" t="s">
+      <c r="T5" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="U5" s="69" t="s">
+      <c r="U5" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="W5" s="67" t="s">
+      <c r="W5" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="X5" s="68" t="s">
+      <c r="X5" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="Y5" s="69" t="s">
+      <c r="Y5" s="50" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="33"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="57"/>
+      <c r="A6" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="32"/>
+      <c r="G6" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I6" s="42" t="s">
+        <v>9</v>
+      </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="57"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="57"/>
-      <c r="S6" s="70"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="71"/>
-      <c r="W6" s="70"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="71"/>
-    </row>
-    <row r="7" spans="1:25" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
+      <c r="K6" s="41"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="42"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="42"/>
+      <c r="S6" s="54"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="53"/>
+      <c r="W6" s="54"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="53"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="31"/>
+      <c r="E7" s="32"/>
+      <c r="G7" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I7" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="42"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="42"/>
+      <c r="S7" s="54"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="53"/>
+      <c r="W7" s="54"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="53"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="28"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="32"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="42"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="42"/>
+      <c r="S8" s="54"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="53"/>
+      <c r="W8" s="54"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="53"/>
+    </row>
+    <row r="9" spans="1:25" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="46"/>
-      <c r="G7" s="56" t="s">
+      <c r="B9" s="29"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="32"/>
+      <c r="F9"/>
+      <c r="G9" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="57" t="s">
+      <c r="I9" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="47"/>
-      <c r="K7" s="59" t="s">
+      <c r="J9" s="1"/>
+      <c r="K9" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="L7" s="80" t="s">
+      <c r="L9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="M7" s="60" t="s">
+      <c r="M9" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="59"/>
-      <c r="P7" s="80"/>
-      <c r="Q7" s="60"/>
-      <c r="S7" s="73" t="s">
+      <c r="N9"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="42"/>
+      <c r="R9"/>
+      <c r="S9" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="T7" s="5" t="s">
+      <c r="T9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="U7" s="72"/>
-      <c r="W7" s="73" t="s">
+      <c r="U9" s="53"/>
+      <c r="W9" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="X7" s="5" t="s">
+      <c r="X9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Y7" s="72"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="Y9" s="53"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="34"/>
-      <c r="G8" s="56" t="s">
+      <c r="B10" s="29"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="32"/>
+      <c r="G10" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="60" t="s">
+      <c r="I10" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="59" t="s">
+      <c r="J10" s="1"/>
+      <c r="K10" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="L8" s="80" t="s">
+      <c r="L10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="M8" s="60" t="s">
+      <c r="M10" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="O8" s="59"/>
-      <c r="P8" s="79"/>
-      <c r="Q8" s="58"/>
-      <c r="S8" s="73" t="s">
+      <c r="O10" s="41"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="42"/>
+      <c r="S10" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="T8" s="5" t="s">
+      <c r="T10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="U8" s="72"/>
-      <c r="W8" s="73" t="s">
+      <c r="U10" s="53"/>
+      <c r="W10" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="X8" s="5" t="s">
+      <c r="X10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Y8" s="72"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="Y10" s="53"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="34"/>
-      <c r="G9" s="56" t="s">
+      <c r="B11" s="29"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="32"/>
+      <c r="G11" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="60" t="s">
+      <c r="I11" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="59" t="s">
+      <c r="J11" s="1"/>
+      <c r="K11" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="L9" s="80" t="s">
+      <c r="L11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="M9" s="60" t="s">
+      <c r="M11" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="O9" s="59"/>
-      <c r="P9" s="80"/>
-      <c r="Q9" s="60"/>
-      <c r="S9" s="73"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="72"/>
-      <c r="W9" s="73"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="72"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="O11" s="41"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="42"/>
+      <c r="S11" s="54"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="53"/>
+      <c r="W11" s="54"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="53"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="34"/>
-      <c r="G10" s="56" t="s">
+      <c r="B12" s="29"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="32"/>
+      <c r="G12" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="60" t="s">
+      <c r="I12" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="59" t="s">
+      <c r="J12" s="1"/>
+      <c r="K12" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="L10" s="80" t="s">
+      <c r="L12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M10" s="60" t="s">
+      <c r="M12" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="O10" s="59"/>
-      <c r="P10" s="80"/>
-      <c r="Q10" s="60"/>
-      <c r="S10" s="73"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="72"/>
-      <c r="W10" s="73"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="72"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="O12" s="41"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="42"/>
+      <c r="S12" s="54"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="53"/>
+      <c r="W12" s="54"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="53"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="34"/>
-      <c r="G11" s="56" t="s">
+      <c r="B13" s="29"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="32"/>
+      <c r="G13" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="60" t="s">
+      <c r="I13" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="60"/>
-      <c r="O11" s="59" t="s">
+      <c r="J13" s="1"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="42"/>
+      <c r="O13" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="P11" s="5" t="s">
+      <c r="P13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="Q11" s="60" t="s">
+      <c r="Q13" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="S11" s="73"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="72"/>
-      <c r="W11" s="73"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="72"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="S13" s="54"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="53"/>
+      <c r="W13" s="54"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="53"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="34"/>
-      <c r="G12" s="56" t="s">
+      <c r="B14" s="29"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="32"/>
+      <c r="G14" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="57" t="s">
+      <c r="I14" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="59" t="s">
+      <c r="J14" s="1"/>
+      <c r="K14" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="L12" s="81" t="s">
+      <c r="L14" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="M12" s="57" t="s">
+      <c r="M14" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="O12" s="59" t="s">
+      <c r="O14" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="P12" s="6" t="s">
+      <c r="P14" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="Q12" s="57" t="s">
+      <c r="Q14" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="S12" s="73"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="72"/>
-      <c r="W12" s="73"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="72"/>
-    </row>
-    <row r="13" spans="1:25" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="42" t="s">
+      <c r="S14" s="54"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="53"/>
+      <c r="W14" s="54"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="53"/>
+    </row>
+    <row r="15" spans="1:25" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="46"/>
-      <c r="G13" s="56" t="s">
+      <c r="B15" s="29"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="32"/>
+      <c r="F15"/>
+      <c r="G15" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="62" t="s">
+      <c r="I15" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="J13" s="47"/>
-      <c r="K13" s="59" t="s">
+      <c r="J15" s="1"/>
+      <c r="K15" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="L13" s="82" t="s">
+      <c r="L15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="M13" s="62" t="s">
+      <c r="M15" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="O13" s="59" t="s">
+      <c r="N15"/>
+      <c r="O15" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="P13" s="48" t="s">
+      <c r="P15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="Q13" s="62" t="s">
+      <c r="Q15" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="S13" s="74"/>
-      <c r="T13" s="48"/>
-      <c r="U13" s="75"/>
-      <c r="W13" s="74"/>
-      <c r="X13" s="48"/>
-      <c r="Y13" s="75"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="R15"/>
+      <c r="S15" s="55"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="56"/>
+      <c r="W15" s="55"/>
+      <c r="X15" s="33"/>
+      <c r="Y15" s="56"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="34"/>
-      <c r="G14" s="56" t="s">
+      <c r="B16" s="29"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="32"/>
+      <c r="G16" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="63" t="s">
+      <c r="I16" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="J14" s="1"/>
-      <c r="K14" s="59" t="s">
+      <c r="J16" s="1"/>
+      <c r="K16" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="L14" s="83" t="s">
+      <c r="L16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="M14" s="63" t="s">
+      <c r="M16" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="O14" s="59" t="s">
+      <c r="O16" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="P14" s="10" t="s">
+      <c r="P16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="Q14" s="63" t="s">
+      <c r="Q16" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="S14" s="73"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="72"/>
-      <c r="W14" s="73"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="72"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="S16" s="54"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="53"/>
+      <c r="W16" s="54"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="53"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="34"/>
-      <c r="G15" s="56" t="s">
+      <c r="B17" s="29"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="32"/>
+      <c r="G17" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="60" t="s">
+      <c r="I17" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="59" t="s">
+      <c r="J17" s="1"/>
+      <c r="K17" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="L15" s="80" t="s">
+      <c r="L17" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="M15" s="60" t="s">
+      <c r="M17" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="O15" s="59" t="s">
+      <c r="O17" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="P15" s="5" t="s">
+      <c r="P17" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="Q15" s="60" t="s">
+      <c r="Q17" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="S15" s="73"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="72"/>
-      <c r="W15" s="73"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="72"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="S17" s="54"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="53"/>
+      <c r="W17" s="54"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="53"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="34"/>
-      <c r="G16" s="56" t="s">
+      <c r="B18" s="29"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="32"/>
+      <c r="G18" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H18" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I16" s="60" t="s">
+      <c r="I18" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="59" t="s">
+      <c r="J18" s="1"/>
+      <c r="K18" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="L16" s="80" t="s">
+      <c r="L18" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="M16" s="60" t="s">
+      <c r="M18" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="O16" s="59" t="s">
+      <c r="O18" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="P16" s="5" t="s">
+      <c r="P18" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="Q16" s="60" t="s">
+      <c r="Q18" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="S16" s="73"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="72"/>
-      <c r="W16" s="73"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="72"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="S18" s="54"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="53"/>
+      <c r="W18" s="54"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="53"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="34"/>
-      <c r="G17" s="56" t="s">
+      <c r="B19" s="29"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="32"/>
+      <c r="G19" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I17" s="60" t="s">
+      <c r="I19" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="J17" s="1"/>
-      <c r="K17" s="59"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="60"/>
-      <c r="O17" s="59" t="s">
+      <c r="J19" s="1"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="42"/>
+      <c r="O19" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="P17" s="5" t="s">
+      <c r="P19" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="Q17" s="60" t="s">
+      <c r="Q19" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="S17" s="73"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="72"/>
-      <c r="W17" s="73"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="72"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="S19" s="54"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="53"/>
+      <c r="W19" s="54"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="53"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="34"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="60"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="80"/>
-      <c r="M18" s="60"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="60"/>
-      <c r="S18" s="73"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="72"/>
-      <c r="W18" s="73"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="72"/>
-    </row>
-    <row r="19" spans="1:25" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="42" t="s">
+      <c r="B20" s="29"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="32"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="42"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="42"/>
+      <c r="S20" s="54"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="53"/>
+      <c r="W20" s="54"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="53"/>
+    </row>
+    <row r="21" spans="1:25" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="46"/>
-      <c r="G19" s="56" t="s">
+      <c r="B21" s="29"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="32"/>
+      <c r="F21"/>
+      <c r="G21" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H21" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I19" s="62" t="s">
+      <c r="I21" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="J19" s="47"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="82"/>
-      <c r="M19" s="62"/>
-      <c r="O19" s="61"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="62"/>
-      <c r="S19" s="74"/>
-      <c r="T19" s="48"/>
-      <c r="U19" s="75"/>
-      <c r="W19" s="74"/>
-      <c r="X19" s="48"/>
-      <c r="Y19" s="75"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="J21" s="1"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="42"/>
+      <c r="N21"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="42"/>
+      <c r="R21"/>
+      <c r="S21" s="55"/>
+      <c r="T21" s="33"/>
+      <c r="U21" s="56"/>
+      <c r="W21" s="55"/>
+      <c r="X21" s="33"/>
+      <c r="Y21" s="56"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="34"/>
-      <c r="G20" s="56" t="s">
+      <c r="B22" s="29"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="32"/>
+      <c r="G22" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H22" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I20" s="60" t="s">
+      <c r="I22" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="J20" s="1"/>
-      <c r="K20" s="59" t="s">
+      <c r="J22" s="1"/>
+      <c r="K22" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="L20" s="80" t="s">
+      <c r="L22" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="M20" s="60" t="s">
+      <c r="M22" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="O20" s="59" t="s">
+      <c r="O22" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="P20" s="5" t="s">
+      <c r="P22" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="Q20" s="60" t="s">
+      <c r="Q22" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="S20" s="73"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="72"/>
-      <c r="W20" s="73"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="72"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="S22" s="54"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="53"/>
+      <c r="W22" s="54"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="53"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="34"/>
-      <c r="G21" s="56" t="s">
+      <c r="B23" s="29"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="32"/>
+      <c r="G23" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H23" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I21" s="57" t="s">
+      <c r="I23" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="J21" s="1"/>
-      <c r="K21" s="56" t="s">
+      <c r="J23" s="1"/>
+      <c r="K23" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="L21" s="81" t="s">
+      <c r="L23" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="M21" s="57" t="s">
+      <c r="M23" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="O21" s="56" t="s">
+      <c r="O23" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="P21" s="6" t="s">
+      <c r="P23" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="Q21" s="57" t="s">
+      <c r="Q23" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="S21" s="70"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="71"/>
-      <c r="W21" s="70"/>
-      <c r="X21" s="6"/>
-      <c r="Y21" s="71"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="S23" s="51"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="52"/>
+      <c r="W23" s="51"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="52"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="34"/>
-      <c r="G22" s="56" t="s">
+      <c r="B24" s="29"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="32"/>
+      <c r="G24" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H24" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I22" s="57" t="s">
+      <c r="I24" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="J22" s="1"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="81"/>
-      <c r="M22" s="57"/>
-      <c r="O22" s="56"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="57"/>
-      <c r="S22" s="70"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="71"/>
-      <c r="W22" s="70"/>
-      <c r="X22" s="6"/>
-      <c r="Y22" s="71"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="J24" s="1"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="42"/>
+      <c r="O24" s="41"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="42"/>
+      <c r="S24" s="51"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="52"/>
+      <c r="W24" s="51"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="52"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="34"/>
-      <c r="G23" s="56" t="s">
+      <c r="B25" s="29"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="32"/>
+      <c r="G25" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H25" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I23" s="57" t="s">
+      <c r="I25" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="J23" s="1"/>
-      <c r="K23" s="56" t="s">
+      <c r="J25" s="1"/>
+      <c r="K25" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="L23" s="6" t="s">
+      <c r="L25" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="M23" s="57" t="s">
+      <c r="M25" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="O23" s="56" t="s">
+      <c r="O25" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="P23" s="6" t="s">
+      <c r="P25" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="Q23" s="57" t="s">
+      <c r="Q25" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="S23" s="70"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="71"/>
-      <c r="W23" s="70"/>
-      <c r="X23" s="6"/>
-      <c r="Y23" s="71"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="S25" s="51"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="52"/>
+      <c r="W25" s="51"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="52"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="34"/>
-      <c r="G24" s="56" t="s">
+      <c r="B26" s="29"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="32"/>
+      <c r="G26" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H26" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I24" s="57" t="s">
+      <c r="I26" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="J24" s="1"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="57"/>
-      <c r="O24" s="56"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="57"/>
-      <c r="S24" s="70"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="71"/>
-      <c r="W24" s="70"/>
-      <c r="X24" s="6"/>
-      <c r="Y24" s="71"/>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A25" s="56" t="s">
+      <c r="J26" s="1"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="42"/>
+      <c r="O26" s="41"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="42"/>
+      <c r="S26" s="51"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="52"/>
+      <c r="W26" s="51"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="52"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="34"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="56" t="s">
+      <c r="B27" s="29"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="32"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="L25" s="6" t="s">
+      <c r="L27" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="M25" s="57" t="s">
+      <c r="M27" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="O25" s="56"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="57"/>
-      <c r="S25" s="70"/>
-      <c r="T25" s="6"/>
-      <c r="U25" s="71"/>
-      <c r="W25" s="70"/>
-      <c r="X25" s="6"/>
-      <c r="Y25" s="71"/>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="O27" s="41"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="42"/>
+      <c r="S27" s="51"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="52"/>
+      <c r="W27" s="51"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="52"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="85"/>
-      <c r="E26" s="86"/>
-      <c r="G26" s="56" t="s">
+      <c r="B28" s="29"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="32"/>
+      <c r="G28" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="H26" s="81" t="s">
+      <c r="H28" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="I26" s="57" t="s">
+      <c r="I28" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="J26" s="1"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="57"/>
-      <c r="O26" s="56" t="s">
+      <c r="J28" s="1"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="42"/>
+      <c r="O28" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="P26" s="6" t="s">
+      <c r="P28" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="Q26" s="57" t="s">
+      <c r="Q28" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="S26" s="70"/>
-      <c r="T26" s="6"/>
-      <c r="U26" s="71"/>
-      <c r="W26" s="70"/>
-      <c r="X26" s="6"/>
-      <c r="Y26" s="71"/>
-    </row>
-    <row r="27" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="12"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="35"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="66"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="64"/>
-      <c r="L27" s="65"/>
-      <c r="M27" s="66"/>
-      <c r="O27" s="64"/>
-      <c r="P27" s="65"/>
-      <c r="Q27" s="66"/>
-      <c r="S27" s="76"/>
-      <c r="T27" s="77"/>
-      <c r="U27" s="78"/>
-      <c r="W27" s="76"/>
-      <c r="X27" s="77"/>
-      <c r="Y27" s="78"/>
-    </row>
-    <row r="28" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G28" s="8"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="9"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="9"/>
       <c r="S28" s="51"/>
-      <c r="T28" s="2"/>
+      <c r="T28" s="4"/>
       <c r="U28" s="52"/>
-      <c r="W28" s="8"/>
-      <c r="X28" s="1"/>
-      <c r="Y28" s="9"/>
-    </row>
-    <row r="29" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="90" t="s">
+      <c r="W28" s="51"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="52"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29" s="28"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="32"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="42"/>
+      <c r="O29" s="41"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="42"/>
+      <c r="S29" s="51"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="52"/>
+      <c r="W29" s="51"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="52"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30" s="28"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="32"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="42"/>
+      <c r="O30" s="41"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="42"/>
+      <c r="S30" s="51"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="52"/>
+      <c r="W30" s="51"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="52"/>
+    </row>
+    <row r="31" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="9"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="21"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="47"/>
+      <c r="O31" s="45"/>
+      <c r="P31" s="46"/>
+      <c r="Q31" s="47"/>
+      <c r="S31" s="57"/>
+      <c r="T31" s="58"/>
+      <c r="U31" s="59"/>
+      <c r="W31" s="57"/>
+      <c r="X31" s="58"/>
+      <c r="Y31" s="59"/>
+    </row>
+    <row r="32" spans="1:25" ht="7.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G32" s="6"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="7"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="7"/>
+      <c r="S32" s="36"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="37"/>
+      <c r="W32" s="6"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="7"/>
+    </row>
+    <row r="33" spans="1:25" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B33" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11" t="s">
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="53" t="s">
+      <c r="G33" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="H29" s="54" t="s">
+      <c r="H33" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="I29" s="55" t="s">
+      <c r="I33" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="K29" s="53" t="s">
+      <c r="K33" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="L29" s="54" t="s">
+      <c r="L33" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="M29" s="55" t="s">
+      <c r="M33" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="O29" s="53" t="s">
+      <c r="O33" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="P29" s="54" t="s">
+      <c r="P33" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="Q29" s="55" t="s">
+      <c r="Q33" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="S29" s="67" t="s">
+      <c r="S33" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="T29" s="68" t="s">
+      <c r="T33" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="U29" s="69" t="s">
+      <c r="U33" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="W29" s="67" t="s">
+      <c r="W33" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="X29" s="68" t="s">
+      <c r="X33" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="Y29" s="69" t="s">
+      <c r="Y33" s="50" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="27" t="s">
+    <row r="34" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" s="60"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="19"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="44"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="44"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="44"/>
+      <c r="S34" s="54"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="53"/>
+      <c r="W34" s="54"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="53"/>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B30" s="87" t="s">
+      <c r="B35" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="C30" s="88"/>
-      <c r="D30" s="89"/>
-      <c r="E30" s="31"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="60"/>
-      <c r="K30" s="59"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="60"/>
-      <c r="O30" s="59"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="60"/>
-      <c r="S30" s="73"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="72"/>
-      <c r="W30" s="73"/>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="72"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31" s="27" t="s">
+      <c r="C35" s="61"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="19"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="44"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="44"/>
+      <c r="O35" s="43"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="44"/>
+      <c r="S35" s="54"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="53"/>
+      <c r="W35" s="54"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="53"/>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="87" t="s">
+      <c r="B36" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="88"/>
-      <c r="D31" s="89"/>
-      <c r="E31" s="31"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="60"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="60"/>
-      <c r="O31" s="59"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="60"/>
-      <c r="S31" s="73"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="72"/>
-      <c r="W31" s="73"/>
-      <c r="X31" s="5"/>
-      <c r="Y31" s="72"/>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
-      <c r="B32" s="87"/>
-      <c r="C32" s="88"/>
-      <c r="D32" s="89"/>
-      <c r="E32" s="31"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="60"/>
-      <c r="K32" s="59"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="60"/>
-      <c r="O32" s="59"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="60"/>
-      <c r="S32" s="73"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="72"/>
-      <c r="W32" s="73"/>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="72"/>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="31"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="60"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="60"/>
-      <c r="O33" s="59"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="60"/>
-      <c r="S33" s="73"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="72"/>
-      <c r="W33" s="73"/>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="72"/>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A34" s="27"/>
-      <c r="B34" s="92"/>
-      <c r="C34" s="93"/>
-      <c r="D34" s="94"/>
-      <c r="E34" s="31"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="60"/>
-      <c r="K34" s="59"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="60"/>
-      <c r="O34" s="59"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="60"/>
-      <c r="S34" s="73"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="72"/>
-      <c r="W34" s="73"/>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="72"/>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A35" s="27"/>
-      <c r="B35" s="92"/>
-      <c r="C35" s="93"/>
-      <c r="D35" s="94"/>
-      <c r="E35" s="31"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="60"/>
-      <c r="K35" s="59"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="60"/>
-      <c r="O35" s="59"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="60"/>
-      <c r="S35" s="73"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="72"/>
-      <c r="W35" s="73"/>
-      <c r="X35" s="5"/>
-      <c r="Y35" s="72"/>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A36" s="27"/>
-      <c r="B36" s="92"/>
-      <c r="C36" s="93"/>
-      <c r="D36" s="94"/>
-      <c r="E36" s="31"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="60"/>
-      <c r="K36" s="59"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="60"/>
-      <c r="O36" s="59"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="60"/>
-      <c r="S36" s="73"/>
-      <c r="T36" s="5"/>
-      <c r="U36" s="72"/>
-      <c r="W36" s="73"/>
-      <c r="X36" s="5"/>
-      <c r="Y36" s="72"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="19"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="44"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="44"/>
+      <c r="O36" s="43"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="44"/>
+      <c r="S36" s="54"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="53"/>
+      <c r="W36" s="54"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="53"/>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A37" s="27"/>
-      <c r="B37" s="92"/>
-      <c r="C37" s="93"/>
-      <c r="D37" s="94"/>
-      <c r="E37" s="31"/>
-      <c r="G37" s="59"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="60"/>
-      <c r="K37" s="59"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="60"/>
-      <c r="O37" s="59"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="60"/>
-      <c r="S37" s="73"/>
-      <c r="T37" s="5"/>
-      <c r="U37" s="72"/>
-      <c r="W37" s="73"/>
-      <c r="X37" s="5"/>
-      <c r="Y37" s="72"/>
-    </row>
-    <row r="38" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="28"/>
-      <c r="B38" s="95"/>
-      <c r="C38" s="96"/>
-      <c r="D38" s="97"/>
-      <c r="E38" s="32"/>
-      <c r="G38" s="64"/>
-      <c r="H38" s="65"/>
-      <c r="I38" s="66"/>
-      <c r="K38" s="64"/>
-      <c r="L38" s="65"/>
-      <c r="M38" s="66"/>
-      <c r="O38" s="64"/>
-      <c r="P38" s="65"/>
-      <c r="Q38" s="66"/>
-      <c r="S38" s="76"/>
-      <c r="T38" s="77"/>
-      <c r="U38" s="78"/>
-      <c r="W38" s="76"/>
-      <c r="X38" s="77"/>
-      <c r="Y38" s="78"/>
-    </row>
-    <row r="39" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="19"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="44"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="44"/>
+      <c r="O37" s="43"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="44"/>
+      <c r="S37" s="54"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="53"/>
+      <c r="W37" s="54"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="53"/>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A38" s="15"/>
+      <c r="B38" s="68"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="70"/>
+      <c r="E38" s="19"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="44"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="44"/>
+      <c r="O38" s="43"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="44"/>
+      <c r="S38" s="54"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="53"/>
+      <c r="W38" s="54"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="53"/>
+    </row>
+    <row r="39" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="16"/>
+      <c r="B39" s="71"/>
+      <c r="C39" s="72"/>
+      <c r="D39" s="73"/>
+      <c r="E39" s="20"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="47"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="46"/>
+      <c r="M39" s="47"/>
+      <c r="O39" s="45"/>
+      <c r="P39" s="46"/>
+      <c r="Q39" s="47"/>
+      <c r="S39" s="57"/>
+      <c r="T39" s="58"/>
+      <c r="U39" s="59"/>
+      <c r="W39" s="57"/>
+      <c r="X39" s="58"/>
+      <c r="Y39" s="59"/>
+    </row>
+    <row r="40" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0"/>
   <protectedRanges>
-    <protectedRange sqref="A30:Y38" name="Questionnaire"/>
-    <protectedRange sqref="A6:Q10 A27:Q27 A11:O26" name="Contact Fields"/>
-    <protectedRange sqref="S3:Y28 S29:Y38" name="customEntity"/>
-    <protectedRange sqref="P11:Q26" name="Contact Fields_7"/>
+    <protectedRange sqref="A34:Y39" name="Questionnaire"/>
+    <protectedRange sqref="A6:E31 O6:Q12 O31:Q31 O13:O30 K6:M31 G6:I31" name="Contact Fields"/>
+    <protectedRange sqref="S3:Y39" name="customEntity"/>
+    <protectedRange sqref="P13:Q30" name="Contact Fields_7"/>
   </protectedRanges>
-  <mergeCells count="10">
+  <mergeCells count="7">
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
     <mergeCell ref="S3:U3"/>
     <mergeCell ref="W3:Y3"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="H10:AG10 H8:O8 R8 J7:K7 N7:R7 H9:R9 S7:AG9 H24:O24 H23:J23 N23 J25:O25 A7:F25 A27:AG28 A26:O26 H11:O22 R11:AG26">
-    <cfRule type="expression" dxfId="23" priority="45">
-      <formula>$C7="x"</formula>
+  <conditionalFormatting sqref="A32:AG32 H10:I26 A6:E31 S9:AG31 O31:Q31 K31:M31 G28:I31">
+    <cfRule type="expression" dxfId="13" priority="51">
+      <formula>$C6="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="46">
-      <formula>$D7="x"</formula>
+    <cfRule type="expression" dxfId="12" priority="52">
+      <formula>$D6="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W30:Y38 S30:U38 O30:Q38 K30:M38 G30:I38">
-    <cfRule type="expression" dxfId="21" priority="43">
-      <formula>$C30="x"</formula>
+  <conditionalFormatting sqref="W34:Y35 S34:U35 O34:Q35 K34:M35 G34:I35 G37:I39 K37:M39 O37:Q39 S37:U39 W37:Y39">
+    <cfRule type="expression" dxfId="11" priority="49">
+      <formula>$C34="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="44">
-      <formula>$D30="x"</formula>
+    <cfRule type="expression" dxfId="10" priority="50">
+      <formula>$D34="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H25:I25 G7:G25">
-    <cfRule type="expression" dxfId="19" priority="31">
-      <formula>$C7="x"</formula>
+  <conditionalFormatting sqref="G6:I30">
+    <cfRule type="expression" dxfId="9" priority="37">
+      <formula>$C6="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="32">
-      <formula>$D7="x"</formula>
+    <cfRule type="expression" dxfId="8" priority="38">
+      <formula>$D6="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P8:Q8">
-    <cfRule type="expression" dxfId="17" priority="17">
-      <formula>$C8="x"</formula>
+  <conditionalFormatting sqref="H9:I9">
+    <cfRule type="expression" dxfId="7" priority="25">
+      <formula>$C9="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="18">
-      <formula>$D8="x"</formula>
+    <cfRule type="expression" dxfId="6" priority="26">
+      <formula>$D9="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7:I7">
-    <cfRule type="expression" dxfId="15" priority="19">
-      <formula>$C7="x"</formula>
+  <conditionalFormatting sqref="W36:Y36 S36:U36 O36:Q36 K36:M36 G36:I36">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>$C36="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="20">
-      <formula>$D7="x"</formula>
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>$D36="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P8:Q8">
-    <cfRule type="expression" dxfId="13" priority="49">
-      <formula>$C7="x"</formula>
+  <conditionalFormatting sqref="O6:Q30 K6:M30">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>$C6="x"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="50">
-      <formula>$D7="x"</formula>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>$D6="x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L7:M7">
-    <cfRule type="expression" dxfId="11" priority="13">
-      <formula>$C7="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="14">
-      <formula>$D7="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O23">
-    <cfRule type="expression" dxfId="9" priority="5">
-      <formula>$C23="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="6">
-      <formula>$D23="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L23:M23">
-    <cfRule type="expression" dxfId="7" priority="11">
-      <formula>$C23="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="12">
-      <formula>$D23="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K23">
-    <cfRule type="expression" dxfId="5" priority="9">
-      <formula>$C23="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="10">
-      <formula>$D23="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P11:Q22 P24:Q26">
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>$C11="x"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>$D11="x"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P23:Q23">
+  <conditionalFormatting sqref="W6:Y8 S6:U8">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>$C23="x"</formula>
+      <formula>$C6="x"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$D23="x"</formula>
+      <formula>$D6="x"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:D27" xr:uid="{F8E4B106-BD78-455B-88E7-2BF3E3468F12}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:D31" xr:uid="{F8E4B106-BD78-455B-88E7-2BF3E3468F12}">
       <formula1>"x"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q29" xr:uid="{5E94B999-2D03-4525-A301-562DE68FEFF1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q33" xr:uid="{5E94B999-2D03-4525-A301-562DE68FEFF1}">
       <formula1>"text,boolean,number,picklist,multiplicklist,lookup"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I27 M6:M27 Q6:Q27 U6:U27 Y6:Y27 I30:I38 M30:M38 Y30:Y38 U30:U38 Q30:Q38" xr:uid="{DA7242C3-4F72-4F4C-A6A0-BF24CAEAAE45}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I31 M6:M31 Q6:Q31 U6:U31 Y6:Y31 I34:I39 M34:M39 Y34:Y39 U34:U39 Q34:Q39" xr:uid="{DA7242C3-4F72-4F4C-A6A0-BF24CAEAAE45}">
       <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3614,6 +3351,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010060A44420B6B801499790497461B7617A" ma:contentTypeVersion="11" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="fabbcee23a04d27af1ae9e54f4461bef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8f774076-1ef3-4740-8929-5969f04599b3" xmlns:ns4="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c03e0335abb4116b770311e5abaeb524" ns3:_="" ns4:_="">
     <xsd:import namespace="8f774076-1ef3-4740-8929-5969f04599b3"/>
@@ -3822,36 +3574,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
-    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3874,9 +3600,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4CDBC7-0A6E-420D-A4CD-91BDFDE80302}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8f774076-1ef3-4740-8929-5969f04599b3"/>
+    <ds:schemaRef ds:uri="8b2a92f5-6e7f-40fd-b6fe-382c9779cf32"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/default-mappings-xlsx/dataQuality/DataQuality_Mapping_SAGE_DE.xlsx
+++ b/default-mappings-xlsx/dataQuality/DataQuality_Mapping_SAGE_DE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitRepos\snapaddy-faq-attachments\default-mappings-xlsx\dataQuality\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitHub\snapaddy-faq-attachments\default-mappings-xlsx\dataQuality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCBF88C8-456B-4225-9559-9A60DE99F058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F7A898-3C5A-4EAA-83AD-49D891A405BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3210" yWindow="6285" windowWidth="18255" windowHeight="5385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Specifications" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="88">
   <si>
     <t>Website</t>
   </si>
@@ -206,9 +206,6 @@
   </si>
   <si>
     <t>type</t>
-  </si>
-  <si>
-    <t>Pflichtfel</t>
   </si>
   <si>
     <t>nicht benötigt</t>
@@ -1962,8 +1959,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:Y40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2008,10 +2005,10 @@
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>57</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>58</v>
       </c>
       <c r="E3" s="18"/>
       <c r="G3" s="77" t="s">
@@ -2047,7 +2044,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C5" s="35"/>
       <c r="D5" s="35"/>
@@ -2103,21 +2100,21 @@
     </row>
     <row r="6" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="29" t="s">
         <v>82</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>83</v>
       </c>
       <c r="C6" s="30"/>
       <c r="D6" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E6" s="32"/>
       <c r="G6" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I6" s="42" t="s">
         <v>9</v>
@@ -2138,21 +2135,21 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="29" t="s">
-        <v>87</v>
-      </c>
       <c r="C7" s="30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D7" s="31"/>
       <c r="E7" s="32"/>
       <c r="G7" s="41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I7" s="42" t="s">
         <v>9</v>
@@ -2196,7 +2193,7 @@
     </row>
     <row r="9" spans="1:25" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" s="29"/>
       <c r="C9" s="30"/>
@@ -2204,7 +2201,7 @@
       <c r="E9" s="32"/>
       <c r="F9"/>
       <c r="G9" s="41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>22</v>
@@ -2214,7 +2211,7 @@
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>36</v>
@@ -2244,14 +2241,14 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="29"/>
       <c r="C10" s="30"/>
       <c r="D10" s="31"/>
       <c r="E10" s="32"/>
       <c r="G10" s="41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>23</v>
@@ -2261,7 +2258,7 @@
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>37</v>
@@ -2289,14 +2286,14 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B11" s="29"/>
       <c r="C11" s="30"/>
       <c r="D11" s="31"/>
       <c r="E11" s="32"/>
       <c r="G11" s="41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>24</v>
@@ -2306,7 +2303,7 @@
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L11" s="4" t="s">
         <v>38</v>
@@ -2326,14 +2323,14 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B12" s="29"/>
       <c r="C12" s="30"/>
       <c r="D12" s="31"/>
       <c r="E12" s="32"/>
       <c r="G12" s="41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>25</v>
@@ -2343,7 +2340,7 @@
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>39</v>
@@ -2363,14 +2360,14 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13" s="29"/>
       <c r="C13" s="30"/>
       <c r="D13" s="31"/>
       <c r="E13" s="32"/>
       <c r="G13" s="41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>27</v>
@@ -2383,7 +2380,7 @@
       <c r="L13" s="4"/>
       <c r="M13" s="42"/>
       <c r="O13" s="41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P13" s="4" t="s">
         <v>46</v>
@@ -2400,14 +2397,14 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B14" s="29"/>
       <c r="C14" s="30"/>
       <c r="D14" s="31"/>
       <c r="E14" s="32"/>
       <c r="G14" s="41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>28</v>
@@ -2417,19 +2414,19 @@
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M14" s="42" t="s">
         <v>9</v>
       </c>
       <c r="O14" s="41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q14" s="42" t="s">
         <v>9</v>
@@ -2443,7 +2440,7 @@
     </row>
     <row r="15" spans="1:25" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B15" s="29"/>
       <c r="C15" s="30"/>
@@ -2451,7 +2448,7 @@
       <c r="E15" s="32"/>
       <c r="F15"/>
       <c r="G15" s="41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>29</v>
@@ -2461,7 +2458,7 @@
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L15" s="4" t="s">
         <v>40</v>
@@ -2471,7 +2468,7 @@
       </c>
       <c r="N15"/>
       <c r="O15" s="41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P15" s="4" t="s">
         <v>40</v>
@@ -2489,14 +2486,14 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B16" s="29"/>
       <c r="C16" s="30"/>
       <c r="D16" s="31"/>
       <c r="E16" s="32"/>
       <c r="G16" s="41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>35</v>
@@ -2506,7 +2503,7 @@
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L16" s="4" t="s">
         <v>41</v>
@@ -2515,7 +2512,7 @@
         <v>9</v>
       </c>
       <c r="O16" s="41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P16" s="4" t="s">
         <v>41</v>
@@ -2532,14 +2529,14 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B17" s="29"/>
       <c r="C17" s="30"/>
       <c r="D17" s="31"/>
       <c r="E17" s="32"/>
       <c r="G17" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>30</v>
@@ -2549,7 +2546,7 @@
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L17" s="4" t="s">
         <v>42</v>
@@ -2558,7 +2555,7 @@
         <v>9</v>
       </c>
       <c r="O17" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P17" s="4" t="s">
         <v>42</v>
@@ -2575,14 +2572,14 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B18" s="29"/>
       <c r="C18" s="30"/>
       <c r="D18" s="31"/>
       <c r="E18" s="32"/>
       <c r="G18" s="41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>31</v>
@@ -2592,7 +2589,7 @@
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L18" s="4" t="s">
         <v>43</v>
@@ -2601,7 +2598,7 @@
         <v>9</v>
       </c>
       <c r="O18" s="41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P18" s="4" t="s">
         <v>43</v>
@@ -2618,14 +2615,14 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B19" s="29"/>
       <c r="C19" s="30"/>
       <c r="D19" s="31"/>
       <c r="E19" s="32"/>
       <c r="G19" s="41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>32</v>
@@ -2638,10 +2635,10 @@
       <c r="L19" s="4"/>
       <c r="M19" s="42"/>
       <c r="O19" s="41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q19" s="42" t="s">
         <v>9</v>
@@ -2655,7 +2652,7 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B20" s="29"/>
       <c r="C20" s="30"/>
@@ -2740,7 +2737,7 @@
         <v>9</v>
       </c>
       <c r="O22" s="41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P22" s="4" t="s">
         <v>44</v>
@@ -2800,14 +2797,14 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B24" s="29"/>
       <c r="C24" s="30"/>
       <c r="D24" s="31"/>
       <c r="E24" s="32"/>
       <c r="G24" s="41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>48</v>
@@ -3118,7 +3115,7 @@
     </row>
     <row r="34" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B34" s="60"/>
       <c r="C34" s="61"/>
@@ -3142,10 +3139,10 @@
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="65" t="s">
         <v>73</v>
-      </c>
-      <c r="B35" s="65" t="s">
-        <v>74</v>
       </c>
       <c r="C35" s="61"/>
       <c r="D35" s="62"/>
@@ -3168,10 +3165,10 @@
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="65" t="s">
         <v>75</v>
-      </c>
-      <c r="B36" s="65" t="s">
-        <v>76</v>
       </c>
       <c r="C36" s="66"/>
       <c r="D36" s="67"/>
@@ -3351,18 +3348,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3575,14 +3572,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -3595,6 +3584,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/default-mappings-xlsx/dataQuality/DataQuality_Mapping_SAGE_DE.xlsx
+++ b/default-mappings-xlsx/dataQuality/DataQuality_Mapping_SAGE_DE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ValentinSchönrock\Documents\GitHub\snapaddy-faq-attachments\default-mappings-xlsx\dataQuality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F7A898-3C5A-4EAA-83AD-49D891A405BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F56362E-70FF-4337-BD0D-D2DFF067A161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1960,7 +1960,7 @@
   <dimension ref="A1:Y40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3337,8 +3337,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q33" xr:uid="{5E94B999-2D03-4525-A301-562DE68FEFF1}">
       <formula1>"text,boolean,number,picklist,multiplicklist,lookup"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I31 M6:M31 Q6:Q31 U6:U31 Y6:Y31 I34:I39 M34:M39 Y34:Y39 U34:U39 Q34:Q39" xr:uid="{DA7242C3-4F72-4F4C-A6A0-BF24CAEAAE45}">
-      <formula1>"text,boolean,number,picklist,multiplicklist,lookup,date"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I6:I31 M6:M31 Q6:Q31 U6:U31 Y6:Y31 Y34:Y39 U34:U39 Q34:Q39 M34:M39 I34:I39" xr:uid="{908F1D5C-719D-4E8F-A9A8-C4DEEA302749}">
+      <formula1>"text,boolean,number,picklist,multipicklist,lookup,date"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -3348,18 +3348,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3572,6 +3572,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EDAAE1C4-DB1B-4159-B8B9-55C0242E8521}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -3584,14 +3592,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B94D2B0B-0398-4829-B93A-C49C0FAED7B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
